--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2096122.059672363</v>
+        <v>2089105.044780653</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>215.039344642804</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5777956236148</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>43.1628810027747</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.58908008912988</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>295.9411473583033</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>81.1299035877431</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>330.2468901668022</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>279.5563487556006</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.31590541686263</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664144</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>83.62275566270716</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>162.7818007526627</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.9955446623047</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>213.3219358494679</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.40955656862257</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.8084418793347</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>170.7164768414881</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.5537645936677</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>225.1809026611657</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>36.3143775081533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>60.5413943066424</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>58.40168825977442</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>235.556406673431</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>142.7169013050004</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21.21224374176673</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>689.1182491573331</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>271.15444105552</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2198.886095354873</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.886095354873</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,13 +4430,13 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2214.475051914319</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>2214.475051914319</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>2214.475051914319</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>2066.561958331926</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2214.475051914319</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2214.475051914319</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925727</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949915</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.548903816607</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
-        <v>181.548903816607</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>181.548903816607</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>181.548903816607</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.548903816607</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.22326060983</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.22326060983</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1318.738820974878</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>907.7529161852704</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>489.7891080834572</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324571</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324571</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324571</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324571</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324571</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,13 +5314,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1334.490209191576</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1079.805720985689</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,55 +5509,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.3109288932102</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3747459653033</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5676,49 +5676,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119723</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035276</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247815</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383397</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383397</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.787631771461</v>
+        <v>385.5899330013791</v>
       </c>
       <c r="X19" t="n">
-        <v>994.3109288932102</v>
+        <v>385.5899330013791</v>
       </c>
       <c r="Y19" t="n">
-        <v>994.3109288932102</v>
+        <v>385.5899330013791</v>
       </c>
     </row>
     <row r="20">
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.2065425397026</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.2065425397026</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.685527502827</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.00103929694</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1046.700508672316</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1046.700508672316</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1046.700508672316</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4577.338583877645</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4353.553168667151</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4064.424529880709</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>3809.740041674822</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3809.740041674822</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3809.740041674822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3809.740041674822</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1192.376296237427</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>903.2476574509849</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>903.2476574509849</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>903.2476574509849</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>675.2581065529675</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.2581065529675</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288848</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W34" t="n">
-        <v>3721.107993746785</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X34" t="n">
-        <v>3721.107993746785</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1439.9246662551</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1439.9246662551</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1439.9246662551</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1185.240178049213</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7371,13 +7371,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>268.760239702689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>118.6436002903532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>118.6436002903532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>118.6436002903532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298392</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>87.16935584025435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567361</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>134.9618976893876</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>123.4555516459147</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>60.83643551963263</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>12.38771953956925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>109.084011894755</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>81.7391191790546</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>27.20433314211519</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>115.9937964647216</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>185.2331835502359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>225.9816040299486</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5191217238288</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>143.8060970315906</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.2813247216108</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883911</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117848</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590213</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590215</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007488</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820906</v>
+        <v>-287066.8555820907</v>
       </c>
       <c r="C6" t="n">
+        <v>302901.0236324545</v>
+      </c>
+      <c r="D6" t="n">
         <v>302901.0236324541</v>
       </c>
-      <c r="D6" t="n">
-        <v>302901.023632454</v>
-      </c>
       <c r="E6" t="n">
-        <v>-116726.3164225985</v>
+        <v>-117700.9076823199</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542974</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="G6" t="n">
-        <v>408433.7200542974</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542977</v>
+        <v>407459.1287945757</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945757</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617045</v>
+        <v>231035.9096019829</v>
       </c>
       <c r="K6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945756</v>
       </c>
       <c r="L6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945757</v>
       </c>
       <c r="M6" t="n">
-        <v>273632.7048204605</v>
+        <v>272658.1135607387</v>
       </c>
       <c r="N6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945757</v>
       </c>
       <c r="O6" t="n">
-        <v>408433.7200542974</v>
+        <v>407459.1287945756</v>
       </c>
       <c r="P6" t="n">
-        <v>408433.7200542975</v>
+        <v>407459.1287945757</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>108.8834281215532</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>161.6631730937982</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>102.2581670201565</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>354.1447615743507</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>90.29679129775025</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.30405905882607</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>24.43615145388077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>44.36642400875655</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>7.361875848788252</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>186.8296335331563</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,19 +36050,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205988</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2089105.044780653</v>
+        <v>2094044.307629684</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>166.6660206362171</v>
       </c>
       <c r="H2" t="n">
-        <v>215.039344642804</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.9411473583033</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>279.5563487556006</v>
+        <v>74.71515407472047</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.83808333974875</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273781</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.62275566270716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>178.0344873527949</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>162.7818007526627</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.9955446623047</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.40955656862257</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>225.1809026611657</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.9303464341694</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>36.3143775081533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>235.556406673431</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>59.77945773664936</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>142.7169013050004</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.892406545185</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.104153946941</v>
+        <v>960.4731223681279</v>
       </c>
       <c r="F2" t="n">
-        <v>689.1182491573331</v>
+        <v>549.4872175785204</v>
       </c>
       <c r="G2" t="n">
-        <v>271.15444105552</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
     </row>
     <row r="3">
@@ -4406,37 +4406,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4476,19 +4476,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2167.012461985812</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064343</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.527073573122</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1704.527073573122</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="D8" t="n">
-        <v>1704.527073573122</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.738820974878</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7529161852704</v>
+        <v>143.3362384825013</v>
       </c>
       <c r="G8" t="n">
-        <v>489.7891080834572</v>
+        <v>129.4128344210922</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4941,25 +4941,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1630682837985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080544</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822432</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5308,22 +5308,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,13 +5345,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028583</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775526</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170014</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507114</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028583</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1334.490209191576</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1079.805720985689</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>790.3885509487287</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>562.3990000507114</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.3990000507114</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,13 +5500,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5518,46 +5518,46 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775526</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170014</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
@@ -5676,49 +5676,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119723</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247815</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383397</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383397</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>385.5899330013791</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>385.5899330013791</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>385.5899330013791</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5770,22 +5770,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>155.2065425397026</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>155.2065425397026</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>531.109187020113</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5992,13 +5992,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,13 +6411,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
         <v>614.6238123952637</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>557.4905621634928</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355859</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1151.239967633105</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>862.1113288466635</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>607.4268406407766</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>318.0096706038159</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>959.9316061372626</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>739.1390269937325</v>
       </c>
     </row>
     <row r="35">
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>493.3819640384826</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X40" t="n">
-        <v>265.3924131404652</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,7 +7508,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7608,13 +7608,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>587.1592421884125</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7645,16 +7645,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978339</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978339</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978339</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>134.9618976893876</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>1.797492829142385</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,16 +23709,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>123.4555516459147</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.83643551963263</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>109.084011894755</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>26.68512658404292</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>185.2331835502359</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>50.96659166315999</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154454</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>143.8060970315906</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883911</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
@@ -26328,34 +26328,34 @@
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="K2" t="n">
-        <v>508337.7776590213</v>
-      </c>
       <c r="L2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007489</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
@@ -26444,22 +26444,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871661</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820907</v>
+        <v>-287066.8555820906</v>
       </c>
       <c r="C6" t="n">
         <v>302901.0236324545</v>
       </c>
       <c r="D6" t="n">
-        <v>302901.0236324541</v>
+        <v>302901.023632454</v>
       </c>
       <c r="E6" t="n">
-        <v>-117700.9076823199</v>
+        <v>-116823.7755485707</v>
       </c>
       <c r="F6" t="n">
-        <v>407459.1287945759</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="G6" t="n">
-        <v>407459.1287945759</v>
+        <v>408336.2609283252</v>
       </c>
       <c r="H6" t="n">
-        <v>407459.1287945757</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="I6" t="n">
-        <v>407459.1287945757</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="J6" t="n">
-        <v>231035.9096019829</v>
+        <v>231913.0417357323</v>
       </c>
       <c r="K6" t="n">
-        <v>407459.1287945756</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="L6" t="n">
-        <v>407459.1287945757</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="M6" t="n">
-        <v>272658.1135607387</v>
+        <v>273535.2456944882</v>
       </c>
       <c r="N6" t="n">
-        <v>407459.1287945757</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="O6" t="n">
-        <v>407459.1287945756</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="P6" t="n">
-        <v>407459.1287945757</v>
+        <v>408336.2609283253</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>247.1181493845779</v>
       </c>
       <c r="H2" t="n">
-        <v>108.8834281215532</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.29679129775025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421886</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831824</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36642400875655</v>
+        <v>249.2076186896367</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>7.361875848788252</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958075</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958075</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958075</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,19 +36050,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515205988</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36211,13 +36211,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
